--- a/data/uMax/raw_data/Task2_48hr_48well_discon_170824_195818/Task2_48hr_48well_discon_170824_195818_wellNames.xlsx
+++ b/data/uMax/raw_data/Task2_48hr_48well_discon_170824_195818/Task2_48hr_48well_discon_170824_195818_wellNames.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -601,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -635,7 +635,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -652,7 +652,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -669,7 +669,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -686,7 +686,7 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -720,7 +720,7 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -737,7 +737,7 @@
         <v>3</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -754,7 +754,7 @@
         <v>3</v>
       </c>
       <c r="D9">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -771,7 +771,7 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -822,7 +822,7 @@
         <v>2</v>
       </c>
       <c r="D13">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -873,7 +873,7 @@
         <v>3</v>
       </c>
       <c r="D16">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -1179,7 +1179,7 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E34" t="b">
         <v>1</v>
@@ -1213,7 +1213,7 @@
         <v>1</v>
       </c>
       <c r="D36">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E36" t="b">
         <v>1</v>
@@ -1230,7 +1230,7 @@
         <v>2</v>
       </c>
       <c r="D37">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E37" t="b">
         <v>1</v>
@@ -1264,7 +1264,7 @@
         <v>2</v>
       </c>
       <c r="D39">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E39" t="b">
         <v>1</v>
@@ -1281,7 +1281,7 @@
         <v>3</v>
       </c>
       <c r="D40">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E40" t="b">
         <v>1</v>
@@ -1315,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="D42">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E42" t="b">
         <v>1</v>
@@ -1332,7 +1332,7 @@
         <v>3</v>
       </c>
       <c r="D43">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E43" t="b">
         <v>1</v>
@@ -1349,7 +1349,7 @@
         <v>3</v>
       </c>
       <c r="D44">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E44" t="b">
         <v>1</v>
@@ -1366,7 +1366,7 @@
         <v>3</v>
       </c>
       <c r="D45">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E45" t="b">
         <v>1</v>
@@ -1383,7 +1383,7 @@
         <v>3</v>
       </c>
       <c r="D46">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="E46" t="b">
         <v>1</v>
